--- a/biology/Médecine/Canal_fémoral/Canal_fémoral.xlsx
+++ b/biology/Médecine/Canal_fémoral/Canal_fémoral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Canal_f%C3%A9moral</t>
+          <t>Canal_fémoral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le canal fémoral (ou canal crural) est un canal fibreux du membre inférieur situé dans la cuisse au niveau du trigone fémoral.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Canal_f%C3%A9moral</t>
+          <t>Canal_fémoral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le canal fémoral est constitué par le compartiment médial de la gaine fémorale. Au sein de la gaine, il est isolé par un septum vertical qui le sépare de la veine fémorale. C'est le plus petit des trois compartiments de la gaine fémorale.
 Il est de forme conique et contient des vaisseaux lymphatiques, du tissu adipeux et conjonctif lâche et le nœud lymphatique inguinal profond proximal.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Canal_f%C3%A9moral</t>
+          <t>Canal_fémoral</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La fonction de ce canal est d'adapter la distension de la veine fémorale lorsque le retour veineux du membre inférieur est augmenté ou temporairement restreint.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Canal_f%C3%A9moral</t>
+          <t>Canal_fémoral</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'intestin peut parfois s'engager par l'anneau fémoral dans le canal fémoral provoquant une hernie crurale. L'anneau fémoral est inflexible En conséquence le risque d'étranglement de la hernie est important et fait de cette pathologie une priorité chirurgicale.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Canal_f%C3%A9moral</t>
+          <t>Canal_fémoral</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Remarque terminologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la littérature française le terme "canal fémoral" fait souvent référence à la gaine fémorale avec ses trois compartiments. Le terme canal fémoral est défini dans cet article au sens donné par la nomenclature TA2.
 </t>
